--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/22fortunzaBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/22fortunzaBrokenData.xlsx
@@ -15,177 +15,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
-  <si>
-    <t>Dragon Riches</t>
-  </si>
-  <si>
-    <t>Black Jack</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="375">
+  <si>
+    <t>Zeus</t>
   </si>
   <si>
     <t>Golden Dragon</t>
   </si>
   <si>
+    <t>Magic Portals</t>
+  </si>
+  <si>
     <t>Oasis Poker</t>
   </si>
   <si>
-    <t>Queen Of Gold 100,000</t>
-  </si>
-  <si>
     <t>Fantasy Park</t>
   </si>
   <si>
-    <t>Inca's Treasure</t>
+    <t>Dragon Ball</t>
   </si>
   <si>
     <t>Pirate King</t>
   </si>
   <si>
-    <t>Dragon Egg</t>
-  </si>
-  <si>
-    <t>Blackbeard's Quest</t>
-  </si>
-  <si>
-    <t>Fruits</t>
-  </si>
-  <si>
-    <t>Monkey 27</t>
-  </si>
-  <si>
-    <t>243 Crystal Fruits</t>
+    <t>Glow</t>
+  </si>
+  <si>
+    <t>Ghost Pirates</t>
+  </si>
+  <si>
+    <t>Mythic Maiden</t>
+  </si>
+  <si>
+    <t>Jack Hammer</t>
+  </si>
+  <si>
+    <t>Lights</t>
+  </si>
+  <si>
+    <t>Piggy Riches</t>
+  </si>
+  <si>
+    <t>Jack &amp; Beanstalk</t>
   </si>
   <si>
     <t>European Roulette</t>
   </si>
   <si>
-    <t>Savannah King</t>
-  </si>
-  <si>
-    <t>Triple Dragons</t>
+    <t>Baseball Fever</t>
   </si>
   <si>
     <t>Lucky Koi</t>
   </si>
   <si>
-    <t>European Blackjack</t>
-  </si>
-  <si>
-    <t>Don Juan's Peppers</t>
-  </si>
-  <si>
-    <t>Blackjack VIP</t>
-  </si>
-  <si>
-    <t>Red Lights</t>
+    <t>Treasure Bowl</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>Reel Steal</t>
   </si>
   <si>
     <t>Fortune Lions</t>
   </si>
   <si>
-    <t>Black Mummy</t>
-  </si>
-  <si>
     <t>Azrabah Wishes</t>
   </si>
   <si>
     <t>Caligula</t>
   </si>
   <si>
-    <t>Wild Weather</t>
-  </si>
-  <si>
     <t>Money Farm 2</t>
   </si>
   <si>
+    <t>Spellcast</t>
+  </si>
+  <si>
     <t>Captain Candy</t>
   </si>
   <si>
-    <t>Flaming Fruit</t>
-  </si>
-  <si>
-    <t>European Roulette VIP</t>
-  </si>
-  <si>
-    <t>Year Of The Tiger</t>
-  </si>
-  <si>
-    <t>Sweet Crush</t>
-  </si>
-  <si>
-    <t>Feng Fu</t>
+    <t>888</t>
+  </si>
+  <si>
+    <t>Money Mouse</t>
   </si>
   <si>
     <t>Wild Jack</t>
   </si>
   <si>
-    <t>Super Keno</t>
-  </si>
-  <si>
     <t>Crystal Mystery</t>
   </si>
   <si>
-    <t>Lucky Clover</t>
-  </si>
-  <si>
-    <t>Frozen Queen</t>
-  </si>
-  <si>
-    <t>Diamond Hill</t>
-  </si>
-  <si>
-    <t>Red Dog</t>
-  </si>
-  <si>
-    <t>Oktoberfest</t>
-  </si>
-  <si>
-    <t>Spinball</t>
+    <t>King Of Slots</t>
+  </si>
+  <si>
+    <t>Spinata Grande</t>
+  </si>
+  <si>
+    <t>Nezha</t>
+  </si>
+  <si>
+    <t>Wild Water</t>
+  </si>
+  <si>
+    <t>Fire Queen</t>
   </si>
   <si>
     <t>Jacks or Better</t>
   </si>
   <si>
-    <t>Butterfly Lovers</t>
-  </si>
-  <si>
-    <t>Joker Reelz</t>
+    <t>Mazu</t>
+  </si>
+  <si>
+    <t>Elements</t>
   </si>
   <si>
     <t>Lucky Cat</t>
   </si>
   <si>
-    <t>Lucky Little Devil</t>
-  </si>
-  <si>
-    <t>Thrones Of Persia</t>
-  </si>
-  <si>
-    <t>Vegas Nights</t>
+    <t>Dragon Gate</t>
   </si>
   <si>
     <t>Fortune Girl</t>
   </si>
   <si>
-    <t>Lady In Red</t>
-  </si>
-  <si>
-    <t>Monster Madness</t>
+    <t>Reel Rush</t>
+  </si>
+  <si>
+    <t>Eggomatic</t>
+  </si>
+  <si>
+    <t>Lucky Angler</t>
+  </si>
+  <si>
+    <t>Twin Spin</t>
   </si>
   <si>
     <t>Emperors Wealth</t>
   </si>
   <si>
-    <t>Lion Dance</t>
+    <t>Frankenstein</t>
+  </si>
+  <si>
+    <t>Jack Hammer 2</t>
+  </si>
+  <si>
+    <t>Wild Witches</t>
   </si>
   <si>
     <t>Blackjack</t>
   </si>
   <si>
-    <t>243 Crystal Fruits R.</t>
-  </si>
-  <si>
-    <t>Deuces Wild</t>
+    <t>Jacks Or Better</t>
   </si>
   <si>
     <t>French Roulette</t>
@@ -194,28 +176,13 @@
     <t>Cai Yuan Guang Jin</t>
   </si>
   <si>
-    <t>Geisha's Fan</t>
-  </si>
-  <si>
     <t>Pontoon</t>
   </si>
   <si>
     <t>Goblin Run</t>
   </si>
   <si>
-    <t>Shaolin's Tiger</t>
-  </si>
-  <si>
-    <t>Sky Barons</t>
-  </si>
-  <si>
-    <t>Joker Poker</t>
-  </si>
-  <si>
-    <t>The Cup</t>
-  </si>
-  <si>
-    <t>Dracula</t>
+    <t>Snow Queen</t>
   </si>
   <si>
     <t>Atlantis World</t>
@@ -227,7 +194,7 @@
     <t>American Roulette</t>
   </si>
   <si>
-    <t>Vampires</t>
+    <t>Starburst</t>
   </si>
   <si>
     <t>Fruit Party</t>
@@ -236,217 +203,943 @@
     <t>Baccarat</t>
   </si>
   <si>
-    <t>Sizable Win</t>
+    <t>Muay Thai</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
   </si>
   <si>
     <t>Red Cliff</t>
   </si>
   <si>
-    <t>1429  Game ID = 23672  Game Provider Name = Microgaming   Game Name =  Booty Time  cod = 404   src = https://resources.fortunza.com/products/outcomebet/bootytime_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>1443  Game ID = 23673  Game Provider Name = Microgaming   Game Name =  Breakaway  cod = 404   src = https://resources.fortunza.com/products/outcomebet/breakaway_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>2149  Game ID = 63048  Game Provider Name = Evoplay   Game Name =  Goblin Run  cod = 404   src = https://resources.fortunza.com/products/evoplay/web/goblinrun.png</t>
-  </si>
-  <si>
-    <t>2432  Game ID = 54231  Game Provider Name = PragmaticPlay   Game Name =  Jackpot  cod = 403   src = https://resources.fortunza.com/products/</t>
-  </si>
-  <si>
-    <t>2569  Game ID = 23656  Game Provider Name = Microgaming   Game Name =  Lady In Red  cod = 404   src = https://resources.fortunza.com/products/microgaming/web/mobebet/ladyinred_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>2981  Game ID = 23680  Game Provider Name = Microgaming   Game Name =  One Of Egypt  cod = 404   src = https://resources.fortunza.com/products/outcomebet/throneofegypt_mg_flash.jpg</t>
-  </si>
-  <si>
-    <t>3243  Game ID = 68070  Game Provider Name = KAGaming   Game Name =  Romance of the Three Kingdoms  cod = 403   src = https://resources.fortunza.com/products/</t>
-  </si>
-  <si>
-    <t>1102 ID=23633 Provider=Microgaming Name=Adventure Palace cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1114 ID=23652 Provider=Microgaming Name=Agent Jane Blonde cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1121 ID=23634 Provider=Microgaming Name=Alaskan Fishing cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1189 ID=23635 Provider=Microgaming Name=Ariana cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1209 ID=23636 Provider=Microgaming Name=Avalon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1276 ID=23670 Provider=Microgaming Name=Basketball Star cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1323 ID=23671 Provider=Microgaming Name=Big Kahuna cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1430 ID=23672 Provider=Microgaming Name=Booty Time cod=49 description=Product blocked for this partner ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1443 ID=23637 Provider=Microgaming Name=Break Da Bank Again cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1444 ID=23673 Provider=Microgaming Name=Breakaway cod=49 description=Product blocked for this partner ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1464 ID=23638 Provider=Microgaming Name=Burning Desire cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1527 ID=23639 Provider=Microgaming Name=Cashapillar cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1694 ID=23640 Provider=Microgaming Name=Deck The Halls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1747 ID=23641 Provider=Microgaming Name=Dolphin Quest cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1810 ID=23681 Provider=Microgaming Name=Dragonz cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1832 ID=23642 Provider=Microgaming Name=Eagles Wings cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1864 ID=23691 Provider=Microgaming Name=Emperor Of The Sea cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>1895 ID=25370 Provider=GameArt Name=Explosive Reels cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>2100 ID=23644 Provider=Microgaming Name=Game Of Thrones 243 Ways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2134 ID=23662 Provider=Microgaming Name=Girls With Guns cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2135 ID=23682 Provider=Microgaming Name=Girls With Guns: Frozen Dawn cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2158 ID=23675 Provider=Microgaming Name=Gods Of Giza cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2230 ID=23676 Provider=Microgaming Name=Gothic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2282 ID=23677 Provider=Microgaming Name=Hell`s Grannies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2381 ID=23645 Provider=Microgaming Name=Huangdi Yellow Emperor cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2399 ID=23646 Provider=Microgaming Name=Immortal Romance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2422 ID=23647 Provider=Microgaming Name=Isis cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2450 ID=23654 Provider=Microgaming Name=Jekyll &amp; Hyde cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2510 ID=23683 Provider=Microgaming Name=Jungle Jim El Dorado cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2520 ID=23648 Provider=Microgaming Name=Kathmandu cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2534 ID=23655 Provider=Microgaming Name=King Of Cash cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2570 ID=23656 Provider=Microgaming Name=Lady In Red cod=49 description=Product blocked for this partner ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2578 ID=23678 Provider=Microgaming Name=Land Of Lemuria cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2611 ID=23663 Provider=Microgaming Name=Life Of Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2622 ID=23664 Provider=Microgaming Name=Loaded cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2686 ID=23684 Provider=Microgaming Name=Lucky Koi cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2710 ID=23665 Provider=Microgaming Name=Lucky Twins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2792 ID=23657 Provider=Microgaming Name=Mayan Princess cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2822 ID=23658 Provider=Microgaming Name=Mermaids Millions cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2898 ID=23693 Provider=Microgaming Name=Mount Olympus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2958 ID=23685 Provider=Microgaming Name=Ninja Magic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2980 ID=23666 Provider=Microgaming Name=Old King Cole cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2982 ID=23680 Provider=Microgaming Name=One Of Egypt cod=49 description=Product blocked for this partner ResponseObject=null</t>
-  </si>
-  <si>
-    <t>2986 ID=23659 Provider=Microgaming Name=Orion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3075 ID=23686 Provider=Microgaming Name=Pistoleras cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3116 ID=23649 Provider=Microgaming Name=Pretty Kitty cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3158 ID=23690 Provider=Microgaming Name=Rabbit In The Hat cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3230 ID=23692 Provider=Microgaming Name=Robo Jack cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3303 ID=23687 Provider=Microgaming Name=Savanna King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3316 ID=23650 Provider=Microgaming Name=Scrooge cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3335 ID=23667 Provider=Microgaming Name=Serenity cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3365 ID=23660 Provider=Microgaming Name=Silver Fang cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3452 ID=23688 Provider=Microgaming Name=Stardust cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3496 ID=23668 Provider=Microgaming Name=Suntide cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3567 ID=23689 Provider=Microgaming Name=Terminator 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3702 ID=23651 Provider=Microgaming Name=Thunderstruck cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3703 ID=23632 Provider=Microgaming Name=Thunderstruck II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3723 ID=23626 Provider=Microgaming Name=Titans Of The Sun: Heia cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3724 ID=23625 Provider=Microgaming Name=Titans Of The Sun: Hyperion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3734 ID=23661 Provider=Microgaming Name=Tomb Raider cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>3794 ID=23679 Provider=Microgaming Name=Twisted Circus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>4005 ID=78984 Provider=CQGaming Name=Xiao Ne Zha cod=0 description=null ResponseObject=24</t>
+    <t>26  Provider ID = 1115   Provider Name = SimplePlay :   cod = 200:   src = https://fortunza.com/assets/images/providers/1115.png</t>
+  </si>
+  <si>
+    <t>87  Game ID = 23958  Game Provider Name = PlaysonDirect   Game Name =  100 Joker Staxx  cod = 403   src = https://resources.fortunza.com/products/</t>
+  </si>
+  <si>
+    <t>101  Game ID = 23968  Game Provider Name = PlaysonDirect   Game Name =  40 Joker Staxx  cod = 403   src = https://resources.fortunza.com/products/</t>
+  </si>
+  <si>
+    <t>124  Game ID = 23853  Game Provider Name = Booongo   Game Name =  88 Wild Dragon  src = https://static.egamings.com/games/booongo/88_wild_dragon.jpg</t>
+  </si>
+  <si>
+    <t>143  Game ID = 23863  Game Provider Name = Booongo   Game Name =  African Spirit  src = https://static.egamings.com/games/booongo/african_spirit.jpg</t>
+  </si>
+  <si>
+    <t>148  Game ID = 23844  Game Provider Name = Booongo   Game Name =  Age of Caesar  src = https://static.egamings.com/games/booongo/age_of_caesar.jpg</t>
+  </si>
+  <si>
+    <t>335  Game ID = 23044  Game Provider Name = NetEnt   Game Name =  Blood Suckers  cod = 404   src = https://resources.fortunza.com/products/outcomebet/blood_suckers_touch.jpg</t>
+  </si>
+  <si>
+    <t>336  Game ID = 23055  Game Provider Name = NetEnt   Game Name =  Blood Suckers 2  cod = 404   src = https://resources.fortunza.com/products/outcomebet/blood_suckers_2.jpg</t>
+  </si>
+  <si>
+    <t>504  Game ID = 23864  Game Provider Name = Booongo   Game Name =  Christmas Charm  src = https://static.egamings.com/games/booongo/christmas_charm.jpg</t>
+  </si>
+  <si>
+    <t>587  Game ID = 23036  Game Provider Name = NetEnt   Game Name =  Dazzle Me  cod = 404   src = https://resources.fortunza.com/products/outcomebet/dazzle_me.jpg</t>
+  </si>
+  <si>
+    <t>588  Game ID = 23058  Game Provider Name = NetEnt   Game Name =  Dead Or Alive  cod = 404   src = https://resources.fortunza.com/products/outcomebet/dead_or_alive_html.jpg</t>
+  </si>
+  <si>
+    <t>656  Game ID = 23080  Game Provider Name = NetEnt   Game Name =  Dracula Touch  cod = 404   src = https://resources.fortunza.com/products/outcomebet/dracula_touch.jpg</t>
+  </si>
+  <si>
+    <t>698  Game ID = 23045  Game Provider Name = NetEnt   Game Name =  Drive Multiplier Mayhem  cod = 404   src = https://resources.fortunza.com/products/outcomebet/drive_multiplier_mayhem.jpg</t>
+  </si>
+  <si>
+    <t>721  Game ID = 23060  Game Provider Name = NetEnt   Game Name =  Elements  cod = 404   src = https://resources.fortunza.com/products/outcomebet/elements_html.jpg</t>
+  </si>
+  <si>
+    <t>825  Game ID = 23051  Game Provider Name = NetEnt   Game Name =  Flowers Christmas Edition  cod = 404   src = https://resources.fortunza.com/products/outcomebet/flowers_christmas.jpg</t>
+  </si>
+  <si>
+    <t>826  Game ID = 23035  Game Provider Name = NetEnt   Game Name =  Flowers touch  cod = 404   src = https://resources.fortunza.com/products/outcomebet/flowers_touch.jpg</t>
+  </si>
+  <si>
+    <t>840  Game ID = 23049  Game Provider Name = NetEnt   Game Name =  Football: Champions Cup  cod = 404   src = https://resources.fortunza.com/products/outcomebet/football.jpg</t>
+  </si>
+  <si>
+    <t>865  Game ID = 23855  Game Provider Name = Booongo   Game Name =  Fortune Multiplier  src = https://static.egamings.com/games/booongo/fortune_multiplier.jpg</t>
+  </si>
+  <si>
+    <t>872  Game ID = 23085  Game Provider Name = NetEnt   Game Name =  FortuneTeller  cod = 404   src = https://resources.fortunza.com/products/outcomebet/fortuneteller.jpg</t>
+  </si>
+  <si>
+    <t>881  Game ID = 23079  Game Provider Name = NetEnt   Game Name =  Frankenstein Touch  cod = 404   src = https://resources.fortunza.com/products/outcomebet/frankenstein_touch.jpg</t>
+  </si>
+  <si>
+    <t>886  Game ID = 23161  Game Provider Name = NetEnt   Game Name =  French Roulette  cod = 404   src = https://resources.fortunza.com/products/outcomebet/french_roulette.jpg</t>
+  </si>
+  <si>
+    <t>887  Game ID = 23557  Game Provider Name = NetEnt   Game Name =  French Roulette  cod = 404   src = https://resources.fortunza.com/products/outcomebet/french_roulette_html.jpg</t>
+  </si>
+  <si>
+    <t>910  Game ID = 23031  Game Provider Name = NetEnt   Game Name =  Fruit Shop  cod = 404   src = https://resources.fortunza.com/products/outcomebet/fruitshop_touch.jpg</t>
+  </si>
+  <si>
+    <t>932  Game ID = 23052  Game Provider Name = NetEnt   Game Name =  Fruitshop Christmas Edition  cod = 404   src = https://resources.fortunza.com/products/outcomebet/fruitshop_christmas.jpg</t>
+  </si>
+  <si>
+    <t>939  Game ID = 23865  Game Provider Name = Booongo   Game Name =  Fruity Wild  src = https://static.egamings.com/games/leander/wild_and_fruity.jpg</t>
+  </si>
+  <si>
+    <t>940  Game ID = 23846  Game Provider Name = Booongo   Game Name =  Fu Cai Shen  src = https://static.egamings.com/games/booongo/fu_cai_shen.jpg</t>
+  </si>
+  <si>
+    <t>968  Game ID = 23093  Game Provider Name = NetEnt   Game Name =  Ghost Pirates  cod = 404   src = https://resources.fortunza.com/products/outcomebet/ghost_pirates.jpg</t>
+  </si>
+  <si>
+    <t>985  Game ID = 63048  Game Provider Name = Evoplay   Game Name =  Goblin Run  cod = 404   src = https://resources.fortunza.com/products/evoplay/web/goblinrun.png</t>
+  </si>
+  <si>
+    <t>1043  Game ID = 23027  Game Provider Name = NetEnt   Game Name =  Gonzos Quest  cod = 404   src = https://resources.fortunza.com/products/outcomebet/gonzos_quest_touch.jpg</t>
+  </si>
+  <si>
+    <t>1070  Game ID = 23046  Game Provider Name = NetEnt   Game Name =  Guns 'N' Roses  cod = 404   src = https://resources.fortunza.com/products/outcomebet/guns_and_roses.jpg</t>
+  </si>
+  <si>
+    <t>1126  Game ID = 23037  Game Provider Name = NetEnt   Game Name =  Hook's Heroes  cod = 404   src = https://resources.fortunza.com/products/outcomebet/hooks_heroes.jpg</t>
+  </si>
+  <si>
+    <t>1137  Game ID = 23084  Game Provider Name = NetEnt   Game Name =  Hot City  cod = 404   src = https://resources.fortunza.com/products/outcomebet/hot_city.jpg</t>
+  </si>
+  <si>
+    <t>1218  Game ID = 23024  Game Provider Name = NetEnt   Game Name =  Jack &amp; Beanstalk  cod = 404   src = https://resources.fortunza.com/products/outcomebet/jack_and_the_beanstalk_touch.jpg</t>
+  </si>
+  <si>
+    <t>1220  Game ID = 23023  Game Provider Name = NetEnt   Game Name =  Jack Hammer  cod = 404   src = https://resources.fortunza.com/products/outcomebet/jack_hammer_touch.jpg</t>
+  </si>
+  <si>
+    <t>1221  Game ID = 23098  Game Provider Name = NetEnt   Game Name =  Jack Hammer  cod = 404   src = https://resources.fortunza.com/products/outcomebet/jack_hammer.jpg</t>
+  </si>
+  <si>
+    <t>1222  Game ID = 23028  Game Provider Name = NetEnt   Game Name =  Jack Hammer 2  cod = 404   src = https://resources.fortunza.com/products/outcomebet/jack_hammer_2_touch.jpg</t>
+  </si>
+  <si>
+    <t>1223  Game ID = 23099  Game Provider Name = NetEnt   Game Name =  Jack Hammer 2  cod = 404   src = https://resources.fortunza.com/products/outcomebet/jack_hammer_2.jpg</t>
+  </si>
+  <si>
+    <t>1232  Game ID = 23163  Game Provider Name = NetEnt   Game Name =  Jacks Or Better  cod = 404   src = https://resources.fortunza.com/products/outcomebet/jacks_or_better_5_hands.jpg</t>
+  </si>
+  <si>
+    <t>1233  Game ID = 23162  Game Provider Name = NetEnt   Game Name =  Jacks Or Better  cod = 404   src = https://resources.fortunza.com/products/outcomebet/jacks_or_better.jpg</t>
+  </si>
+  <si>
+    <t>1247  Game ID = 23047  Game Provider Name = NetEnt   Game Name =  Jimi Hendrix  cod = 404   src = https://resources.fortunza.com/products/outcomebet/jimi_hendrix.jpg</t>
+  </si>
+  <si>
+    <t>1258  Game ID = 23964  Game Provider Name = PlaysonDirect   Game Name =  Joker Expand: 40 lines  cod = 403   src = https://resources.fortunza.com/products/</t>
+  </si>
+  <si>
+    <t>1259  Game ID = 23983  Game Provider Name = PlaysonDirect   Game Name =  Joker Expand: 5 lines  cod = 403   src = https://resources.fortunza.com/products/</t>
+  </si>
+  <si>
+    <t>1296  Game ID = 23057  Game Provider Name = NetEnt   Game Name =  Jungle Spirit  cod = 404   src = https://resources.fortunza.com/products/outcomebet/jungle_spirit.jpg</t>
+  </si>
+  <si>
+    <t>1334  Game ID = 23042  Game Provider Name = NetEnt   Game Name =  Koi Princess  cod = 404   src = https://resources.fortunza.com/products/outcomebet/koi_princess.jpg</t>
+  </si>
+  <si>
+    <t>1379  Game ID = 23030  Game Provider Name = NetEnt   Game Name =  Lights  cod = 404   src = https://resources.fortunza.com/products/outcomebet/lights_touch.jpg</t>
+  </si>
+  <si>
+    <t>1412  Game ID = 23029  Game Provider Name = NetEnt   Game Name =  Lucky Angler  cod = 404   src = https://resources.fortunza.com/products/outcomebet/lucky_angler_touch.jpg</t>
+  </si>
+  <si>
+    <t>1471  Game ID = 23856  Game Provider Name = Booongo   Game Name =  Lucky Xmas  src = https://static.egamings.com/games/booongo/lucky_xmas.jpg</t>
+  </si>
+  <si>
+    <t>1502  Game ID = 23026  Game Provider Name = NetEnt   Game Name =  Magic Portals  cod = 404   src = https://resources.fortunza.com/products/outcomebet/magic_portals_touch.jpg</t>
+  </si>
+  <si>
+    <t>1527  Game ID = 23155  Game Provider Name = NetEnt   Game Name =  Master Of Mystery  cod = 404   src = https://resources.fortunza.com/products/outcomebet/master_of_mystery.jpg</t>
+  </si>
+  <si>
+    <t>1595  Game ID = 23847  Game Provider Name = Booongo   Game Name =  Monkey Money  src = https://static.egamings.com/games/booongo/monkey_money.jpg</t>
+  </si>
+  <si>
+    <t>1638  Game ID = 23073  Game Provider Name = NetEnt   Game Name =  Mystery At The Mansion  cod = 404   src = https://resources.fortunza.com/products/outcomebet/mystery_at_the_mansion.jpg</t>
+  </si>
+  <si>
+    <t>1648  Game ID = 23100  Game Provider Name = NetEnt   Game Name =  Mythic Maiden  cod = 404   src = https://resources.fortunza.com/products/outcomebet/mythic_maiden.jpg</t>
+  </si>
+  <si>
+    <t>1649  Game ID = 23034  Game Provider Name = NetEnt   Game Name =  Mythic Maiden  cod = 404   src = https://resources.fortunza.com/products/outcomebet/mythic_maiden_touch.jpg</t>
+  </si>
+  <si>
+    <t>1661  Game ID = 23038  Game Provider Name = NetEnt   Game Name =  Neon Staxx  cod = 404   src = https://resources.fortunza.com/products/outcomebet/neon_staxx.jpg</t>
+  </si>
+  <si>
+    <t>1680  Game ID = 23082  Game Provider Name = NetEnt   Game Name =  Nrvna Touch  cod = 404   src = https://resources.fortunza.com/products/outcomebet/nrvna_touch.jpg</t>
+  </si>
+  <si>
+    <t>1703  Game ID = 23072  Game Provider Name = NetEnt   Game Name =  Pacific Attack!  cod = 404   src = https://resources.fortunza.com/products/outcomebet/pacific_attack.jpg</t>
+  </si>
+  <si>
+    <t>1709  Game ID = 23069  Game Provider Name = NetEnt   Game Name =  Pandora's Box  cod = 404   src = https://resources.fortunza.com/products/outcomebet/pandoras_box.jpg</t>
+  </si>
+  <si>
+    <t>1722  Game ID = 23866  Game Provider Name = Booongo   Game Name =  Patrick's Pub  cod = 404   src = https://resources.fortunza.com/products/outcomebet/web/PatricksPub.png</t>
+  </si>
+  <si>
+    <t>1752  Game ID = 23094  Game Provider Name = NetEnt   Game Name =  Piggy Riches  cod = 404   src = https://resources.fortunza.com/products/outcomebet/piggy_riches.jpg</t>
+  </si>
+  <si>
+    <t>1753  Game ID = 23025  Game Provider Name = NetEnt   Game Name =  Piggy Riches  cod = 404   src = https://resources.fortunza.com/products/outcomebet/piggy_riches_touch.jpg</t>
+  </si>
+  <si>
+    <t>1814  Game ID = 23043  Game Provider Name = NetEnt   Game Name =  Pyramid  cod = 404   src = https://resources.fortunza.com/products/outcomebet/pyramid_new.jpg</t>
+  </si>
+  <si>
+    <t>1853  Game ID = 23062  Game Provider Name = NetEnt   Game Name =  Reel Rush  cod = 404   src = https://resources.fortunza.com/products/outcomebet/reel_rush_html.jpg</t>
+  </si>
+  <si>
+    <t>1854  Game ID = 23090  Game Provider Name = NetEnt   Game Name =  Reel Steal  cod = 404   src = https://resources.fortunza.com/products/outcomebet/reel_steal.jpg</t>
+  </si>
+  <si>
+    <t>1894  Game ID = 68070  Game Provider Name = KAGaming   Game Name =  Romance of the Three Kingdoms  cod = 403   src = https://resources.fortunza.com/products/</t>
+  </si>
+  <si>
+    <t>1898  Game ID = 23212  Game Provider Name = NetEnt   Game Name =  Roulette Touch  cod = 404   src = https://resources.fortunza.com/products/outcomebet/roulette_touch.jpg</t>
+  </si>
+  <si>
+    <t>1969  Game ID = 23857  Game Provider Name = Booongo   Game Name =  Secret of Nefertiti 2  src = https://static.egamings.com/games/booongo/secret_of_nefertiti_2.jpg</t>
+  </si>
+  <si>
+    <t>1971  Game ID = 23054  Game Provider Name = NetEnt   Game Name =  Secrets of Atlantis  cod = 404   src = https://resources.fortunza.com/products/outcomebet/secrets_of_atlantis.jpg</t>
+  </si>
+  <si>
+    <t>1972  Game ID = 23056  Game Provider Name = NetEnt   Game Name =  Secrets of Christmas  cod = 404   src = https://resources.fortunza.com/products/outcomebet/secrets_of_christmas.jpg</t>
+  </si>
+  <si>
+    <t>1973  Game ID = 23065  Game Provider Name = NetEnt   Game Name =  Secrets Of Horus  cod = 404   src = https://resources.fortunza.com/products/outcomebet/secrets_of_horus.jpg</t>
+  </si>
+  <si>
+    <t>1989  Game ID = 23850  Game Provider Name = Booongo   Game Name =  Shen Long Mi Bao  src = https://static.egamings.com/games/booongo/shen_long_mi_bao.jpg</t>
+  </si>
+  <si>
+    <t>2008  Game ID = 23851  Game Provider Name = Booongo   Game Name =  Singles Day  cod = 404   src = https://resources.fortunza.com/products/outcomebet/web/SinglesDay.png</t>
+  </si>
+  <si>
+    <t>2016  Game ID = 23858  Game Provider Name = Booongo   Game Name =  Sky Gems: 5 Wilds  src = https://static.egamings.com/games/booongo/sky_gems_5_wilds.jpg</t>
+  </si>
+  <si>
+    <t>2020  Game ID = 23966  Game Provider Name = PlaysonDirect   Game Name =  Sky Way  cod = 403   src = https://resources.fortunza.com/products/</t>
+  </si>
+  <si>
+    <t>2046  Game ID = 23075  Game Provider Name = NetEnt   Game Name =  South Park Touch  cod = 404   src = https://resources.fortunza.com/products/outcomebet/south_park_touch.jpg</t>
+  </si>
+  <si>
+    <t>2050  Game ID = 23039  Game Provider Name = NetEnt   Game Name =  Sparks  cod = 404   src = https://resources.fortunza.com/products/outcomebet/sparks.jpg</t>
+  </si>
+  <si>
+    <t>2054  Game ID = 23066  Game Provider Name = NetEnt   Game Name =  Spellcast  cod = 404   src = https://resources.fortunza.com/products/outcomebet/spellcast.jpg.jpg</t>
+  </si>
+  <si>
+    <t>2060  Game ID = 23033  Game Provider Name = NetEnt   Game Name =  Spinata Grande  cod = 404   src = https://resources.fortunza.com/products/outcomebet/spinata_grande_touch.jpg</t>
+  </si>
+  <si>
+    <t>2079  Game ID = 23859  Game Provider Name = Booongo   Game Name =  Star Gems  src = https://static.egamings.com/games/booongo/star_gems.jpg</t>
+  </si>
+  <si>
+    <t>2081  Game ID = 23032  Game Provider Name = NetEnt   Game Name =  Starburst  cod = 404   src = https://resources.fortunza.com/products/outcomebet/starburst_touch.jpg</t>
+  </si>
+  <si>
+    <t>2086  Game ID = 23077  Game Provider Name = NetEnt   Game Name =  Steam Tower Touch  cod = 404   src = https://resources.fortunza.com/products/outcomebet/steam_tower_touch.jpg</t>
+  </si>
+  <si>
+    <t>2088  Game ID = 23040  Game Provider Name = NetEnt   Game Name =  Stickers  cod = 404   src = https://resources.fortunza.com/products/outcomebet/stickers.jpg</t>
+  </si>
+  <si>
+    <t>2102  Game ID = 23081  Game Provider Name = NetEnt   Game Name =  Subtopia Touch  cod = 404   src = https://resources.fortunza.com/products/outcomebet/subtopia_touch.jpg</t>
+  </si>
+  <si>
+    <t>2134  Game ID = 23862  Game Provider Name = Booongo   Game Name =  Supreme Fortune  src = https://static.egamings.com/games/booongo/supreme_fortune.jpg</t>
+  </si>
+  <si>
+    <t>2161  Game ID = 23083  Game Provider Name = NetEnt   Game Name =  Tales Of Krakow  cod = 404   src = https://resources.fortunza.com/products/outcomebet/tales_of_krakow.jpg</t>
+  </si>
+  <si>
+    <t>2229  Game ID = 23041  Game Provider Name = NetEnt   Game Name =  The Invisible Man  cod = 404   src = https://resources.fortunza.com/products/outcomebet/the_invisible_man.jpg</t>
+  </si>
+  <si>
+    <t>2260  Game ID = 23050  Game Provider Name = NetEnt   Game Name =  Theme Park  cod = 404   src = https://resources.fortunza.com/products/outcomebet/theme_park.jpg</t>
+  </si>
+  <si>
+    <t>2275  Game ID = 23064  Game Provider Name = NetEnt   Game Name =  Thrill Spin  cod = 404   src = https://resources.fortunza.com/products/outcomebet/thrillspin.jpg</t>
+  </si>
+  <si>
+    <t>2298  Game ID = 23074  Game Provider Name = NetEnt   Game Name =  Tornado Touch  cod = 404   src = https://resources.fortunza.com/products/outcomebet/tornado_touch.jpg</t>
+  </si>
+  <si>
+    <t>2333  Game ID = 23068  Game Provider Name = NetEnt   Game Name =  Trolls  cod = 404   src = https://resources.fortunza.com/products/outcomebet/trolls.jpg</t>
+  </si>
+  <si>
+    <t>2342  Game ID = 23022  Game Provider Name = NetEnt   Game Name =  Twin Spin  cod = 404   src = https://resources.fortunza.com/products/outcomebet/twin_spin_touch.jpg</t>
+  </si>
+  <si>
+    <t>2343  Game ID = 23135  Game Provider Name = NetEnt   Game Name =  Twin Spin  cod = 404   src = https://resources.fortunza.com/products/outcomebet/twin_spin.jpg</t>
+  </si>
+  <si>
+    <t>2374  Game ID = 23063  Game Provider Name = NetEnt   Game Name =  Viking`s Treasure  cod = 404   src = https://resources.fortunza.com/products/outcomebet/vikings_treasure.jpg</t>
+  </si>
+  <si>
+    <t>2377  Game ID = 23860  Game Provider Name = Booongo   Game Name =  Vikings Winter  src = https://static.egamings.com/games/booongo/vikings_winter.jpg</t>
+  </si>
+  <si>
+    <t>2383  Game ID = 23071  Game Provider Name = NetEnt   Game Name =  Voodoo Vibes  cod = 404   src = https://resources.fortunza.com/products/outcomebet/voodoo_vibes.jpg</t>
+  </si>
+  <si>
+    <t>2389  Game ID = 23053  Game Provider Name = NetEnt   Game Name =  Warlords - Crystal of P.  cod = 404   src = https://resources.fortunza.com/products/outcomebet/warlords.jpg</t>
+  </si>
+  <si>
+    <t>2408  Game ID = 23861  Game Provider Name = Booongo   Game Name =  Wild 888  src = https://static.egamings.com/games/booongo/wild_888.jpg</t>
+  </si>
+  <si>
+    <t>2451  Game ID = 23095  Game Provider Name = NetEnt   Game Name =  Wild Turkey  cod = 404   src = https://resources.fortunza.com/products/outcomebet/wild_turkey.jpg</t>
+  </si>
+  <si>
+    <t>2454  Game ID = 23967  Game Provider Name = PlaysonDirect   Game Name =  Wild Warriors  cod = 403   src = https://resources.fortunza.com/products/</t>
+  </si>
+  <si>
+    <t>2456  Game ID = 23061  Game Provider Name = NetEnt   Game Name =  Wild Water  cod = 404   src = https://resources.fortunza.com/products/outcomebet/wild_water_html.jpg</t>
+  </si>
+  <si>
+    <t>2463  Game ID = 23059  Game Provider Name = NetEnt   Game Name =  Wild Wild West  cod = 404   src = https://resources.fortunza.com/products/outcomebet/wild_wild_west.jpg</t>
+  </si>
+  <si>
+    <t>2465  Game ID = 23067  Game Provider Name = NetEnt   Game Name =  Wild Witches  cod = 404   src = https://resources.fortunza.com/products/outcomebet/wild_witches.jpg</t>
+  </si>
+  <si>
+    <t>2484  Game ID = 23134  Game Provider Name = NetEnt   Game Name =  Wish Master  cod = 404   src = https://resources.fortunza.com/products/outcomebet/wishmaster.jpg</t>
+  </si>
+  <si>
+    <t>139 ID=23633 Provider=Microgaming Name=Adventure Palace cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>151 ID=23652 Provider=Microgaming Name=Agent Jane Blonde cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>157 ID=23634 Provider=Microgaming Name=Alaskan Fishing cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>211 ID=23635 Provider=Microgaming Name=Ariana cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>224 ID=23126 Provider=NetEnt Name=Attraction cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>226 ID=23636 Provider=Microgaming Name=Avalon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>246 ID=77705 Provider=CQGaming Name=Ba Xian Chuan Qi cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>260 ID=77793 Provider=CQGaming Name=Backyard Gold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>280 ID=23670 Provider=Microgaming Name=Basketball Star cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>285 ID=23130 Provider=NetEnt Name=Beach cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>287 ID=77474 Provider=CQGaming Name=Beanstalk cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>306 ID=23122 Provider=NetEnt Name=Big Bang cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>310 ID=23671 Provider=Microgaming Name=Big Kahuna cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>341 ID=23403 Provider=NetEnt Name=BOB The Epic Viking Quest cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>407 ID=23637 Provider=Microgaming Name=Break Da Bank Again cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>426 ID=23638 Provider=Microgaming Name=Burning Desire cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>472 ID=23639 Provider=Microgaming Name=Cashapillar cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>575 ID=77489 Provider=CQGaming Name=Da Fu Xing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>591 ID=23640 Provider=Microgaming Name=Deck The Halls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>594 ID=23146 Provider=NetEnt Name=Demolition Squad cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>600 ID=23166 Provider=NetEnt Name=Deuses Wild cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>608 ID=77548 Provider=CQGaming Name=Diamond Fruit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>632 ID=23151 Provider=NetEnt Name=Disco Spins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>634 ID=77787 Provider=CQGaming Name=Doggone Lucky cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>636 ID=23641 Provider=Microgaming Name=Dolphin Quest cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>643 ID=77785 Provider=CQGaming Name=Dou Di Zhu cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>644 ID=77704 Provider=CQGaming Name=Dou Di Zhu Plus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>651 ID=77598 Provider=CQGaming Name=Double Happiness cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>652 ID=77790 Provider=CQGaming Name=Double Happy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>663 ID=77788 Provider=CQGaming Name=Dragon Gate cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>668 ID=23128 Provider=NetEnt Name=Dragon Island cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>695 ID=23681 Provider=Microgaming Name=Dragonz cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>707 ID=23642 Provider=Microgaming Name=Eagles Wings cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>713 ID=23144 Provider=NetEnt Name=Eggomatic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>716 ID=23108 Provider=NetEnt Name=Egyptian Heroes cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>722 ID=23141 Provider=NetEnt Name=Elements cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>732 ID=23691 Provider=Microgaming Name=Emperor Of The Sea cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>737 ID=77495 Provider=CQGaming Name=Empress Wu cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>745 ID=77779 Provider=CQGaming Name=Eternal Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>751 ID=23142 Provider=NetEnt Name=Evolution cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>755 ID=25370 Provider=GameArt Name=Explosive Reels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>813 ID=78771 Provider=CQGaming Name=Fishing King cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>815 ID=77789 Provider=CQGaming Name=Five Ghosts cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>816 ID=77774 Provider=CQGaming Name=Five Lucky Elements cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>851 ID=77791 Provider=CQGaming Name=Fortune Cats cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>859 ID=77503 Provider=CQGaming Name=Fortune Gate cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>873 ID=23085 Provider=NetEnt Name=FortuneTeller cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>881 ID=23104 Provider=NetEnt Name=Frankenstein cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>888 ID=23161 Provider=NetEnt Name=French Roulette cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>892 ID=77542 Provider=CQGaming Name=Frozen World cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>898 ID=23120 Provider=NetEnt Name=Fruit Case cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>945 ID=23152 Provider=NetEnt Name=Funky Seventies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>950 ID=23644 Provider=Microgaming Name=Game Of Thrones 243 Ways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>965 ID=77491 Provider=CQGaming Name=GENIE cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>969 ID=23093 Provider=NetEnt Name=Ghost Pirates cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>973 ID=23662 Provider=Microgaming Name=Girls With Guns cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>974 ID=23682 Provider=Microgaming Name=Girls With Guns: Frozen Dawn cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>979 ID=23156 Provider=NetEnt Name=Glow cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>982 ID=23139 Provider=NetEnt Name=Go Bananas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>997 ID=23675 Provider=Microgaming Name=Gods Of Giza cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1049 ID=23676 Provider=Microgaming Name=Gothic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1064 ID=23153 Provider=NetEnt Name=Groovy Sixties cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1078 ID=77482 Provider=CQGaming Name=HAPPY BUDDHA cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1097 ID=23677 Provider=Microgaming Name=Hell`s Grannies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1116 ID=23401 Provider=NetEnt Name=Hit 2 Split cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1125 ID=77583 Provider=CQGaming Name=Hong Kong Flavor cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1138 ID=23084 Provider=NetEnt Name=Hot City cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1179 ID=77786 Provider=CQGaming Name=Hu Got Lucky cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1183 ID=23645 Provider=Microgaming Name=Huangdi Yellow Emperor cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1184 ID=77484 Provider=CQGaming Name=HUGA cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1187 ID=77770 Provider=CQGaming Name=Hungry Cats cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1197 ID=23646 Provider=Microgaming Name=Immortal Romance cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1214 ID=23647 Provider=Microgaming Name=Isis cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1218 ID=23109 Provider=NetEnt Name=Jack &amp; Beanstalk cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1221 ID=23098 Provider=NetEnt Name=Jack Hammer cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1223 ID=23099 Provider=NetEnt Name=Jack Hammer 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1233 ID=23163 Provider=NetEnt Name=Jacks Or Better cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1234 ID=23162 Provider=NetEnt Name=Jacks Or Better cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1239 ID=23654 Provider=Microgaming Name=Jekyll &amp; Hyde cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1249 ID=77497 Provider=CQGaming Name=JIN LIAN PAN cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1291 ID=23116 Provider=NetEnt Name=Jungle Games cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1292 ID=77475 Provider=CQGaming Name=JUNGLE ISLAND cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1293 ID=23683 Provider=Microgaming Name=Jungle Jim El Dorado cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1299 ID=77784 Provider=CQGaming Name=Jungle Treasure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1304 ID=23648 Provider=Microgaming Name=Kathmandu cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1311 ID=77783 Provider=CQGaming Name=Kickin' Kash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1318 ID=23655 Provider=Microgaming Name=King Of Cash cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1322 ID=23402 Provider=NetEnt Name=King Of Slots cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1350 ID=23678 Provider=Microgaming Name=Land Of Lemuria cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1357 ID=77778 Provider=CQGaming Name=Le Cirque cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1377 ID=23663 Provider=Microgaming Name=Life Of Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1380 ID=23124 Provider=NetEnt Name=Lights cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1382 ID=77488 Provider=CQGaming Name=Lin Chong cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1388 ID=23664 Provider=Microgaming Name=Loaded cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1390 ID=77501 Provider=CQGaming Name=LongLaiFa cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1391 ID=77508 Provider=CQGaming Name=LongLongLong cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1394 ID=23125 Provider=NetEnt Name=Lost Island cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1398 ID=77780 Provider=CQGaming Name=Lotus Lantern cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1404 ID=77776 Provider=CQGaming Name=Love Story cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1413 ID=23106 Provider=NetEnt Name=Lucky Angler cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1438 ID=26592 Provider=Evoplay Name=Lucky Girls cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>1450 ID=23684 Provider=Microgaming Name=Lucky Koi cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1454 ID=77766 Provider=CQGaming Name=Lucky Legend cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1470 ID=23665 Provider=Microgaming Name=Lucky Twins cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1502 ID=23123 Provider=NetEnt Name=Magic Portals cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1518 ID=77773 Provider=CQGaming Name=Magpie Bridge cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1519 ID=77626 Provider=CQGaming Name=Mahjong For 2 Players cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1528 ID=23155 Provider=NetEnt Name=Master Of Mystery cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1529 ID=77496 Provider=CQGaming Name=Master Panda cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1533 ID=23657 Provider=Microgaming Name=Mayan Princess cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1537 ID=77775 Provider=CQGaming Name=Mazu cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1548 ID=78772 Provider=CQGaming Name=Mega Winner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1557 ID=23658 Provider=Microgaming Name=Mermaids Millions cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1595 ID=77687 Provider=CQGaming Name=Monkey King cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1613 ID=23693 Provider=Microgaming Name=Mount Olympus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1626 ID=77483 Provider=CQGaming Name=MULAN cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1632 ID=23112 Provider=NetEnt Name=Muse cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1639 ID=23073 Provider=NetEnt Name=Mystery At The Mansion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1647 ID=77477 Provider=CQGaming Name=Myth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1649 ID=23100 Provider=NetEnt Name=Mythic Maiden cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1664 ID=77486 Provider=CQGaming Name=Nezha cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1673 ID=23685 Provider=Microgaming Name=Ninja Magic cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1675 ID=77480 Provider=CQGaming Name=Niu Niu Niu cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1680 ID=23158 Provider=NetEnt Name=Nrvna cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1692 ID=23666 Provider=Microgaming Name=Old King Cole cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1699 ID=23659 Provider=Microgaming Name=Orion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1704 ID=23072 Provider=NetEnt Name=Pacific Attack! cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1710 ID=23069 Provider=NetEnt Name=Pandora's Box cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1717 ID=77476 Provider=CQGaming Name=PARTY ISLAND cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1753 ID=23094 Provider=NetEnt Name=Piggy Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1769 ID=23686 Provider=Microgaming Name=Pistoleras cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1799 ID=23649 Provider=Microgaming Name=Pretty Kitty cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1826 ID=23690 Provider=Microgaming Name=Rabbit In The Hat cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1827 ID=77777 Provider=CQGaming Name=Rabbit Rampage cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1854 ID=23143 Provider=NetEnt Name=Reel Rush cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1856 ID=23090 Provider=NetEnt Name=Reel Steal cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1880 ID=23110 Provider=NetEnt Name=Robin Hood cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1882 ID=23692 Provider=Microgaming Name=Robo Jack cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1893 ID=77502 Provider=CQGaming Name=ROLLING DRAGON cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1904 ID=77597 Provider=CQGaming Name=Royal Fruit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1922 ID=77478 Provider=CQGaming Name=Rush Hour cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1949 ID=23687 Provider=Microgaming Name=Savanna King cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1954 ID=23114 Provider=NetEnt Name=Scarface cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1960 ID=23650 Provider=Microgaming Name=Scrooge cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1968 ID=23117 Provider=NetEnt Name=Secret Code cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1974 ID=23065 Provider=NetEnt Name=Secrets Of Horus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1975 ID=23113 Provider=NetEnt Name=Secrets Of Stones cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1979 ID=23667 Provider=Microgaming Name=Serenity cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>1991 ID=77771 Provider=CQGaming Name=Sheng Xiao Chuan Qi cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2003 ID=23148 Provider=NetEnt Name=Silent Run cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2006 ID=23660 Provider=Microgaming Name=Silver Fang cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2007 ID=23118 Provider=NetEnt Name=Simsalabim cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2024 ID=77492 Provider=CQGaming Name=Slot 777 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2041 ID=77547 Provider=CQGaming Name=Songkran cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2044 ID=23115 Provider=NetEnt Name=South Park cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2045 ID=23150 Provider=NetEnt Name=South Park Reel Chaos cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2050 ID=23147 Provider=NetEnt Name=Space Wars cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2054 ID=23066 Provider=NetEnt Name=Spellcast cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2061 ID=23138 Provider=NetEnt Name=Spinata Grande cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2082 ID=23103 Provider=NetEnt Name=Starburst cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2083 ID=23688 Provider=Microgaming Name=Stardust cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2086 ID=23137 Provider=NetEnt Name=Steam Tower cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2093 ID=77781 Provider=CQGaming Name=Stone to Gold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2102 ID=23102 Provider=NetEnt Name=Subtopia cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2109 ID=77498 Provider=CQGaming Name=Sun Er Niang cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2113 ID=23668 Provider=Microgaming Name=Suntide cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2123 ID=23154 Provider=NetEnt Name=Super Eighties cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2140 ID=77464 Provider=CQGaming Name=Sweet 666 Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2162 ID=23083 Provider=NetEnt Name=Tales Of Krakow cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2173 ID=23689 Provider=Microgaming Name=Terminator 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2200 ID=77534 Provider=CQGaming Name=The Dragon Brings Wealth cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2201 ID=77623 Provider=CQGaming Name=The Dragon Brings Wealth 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2236 ID=77487 Provider=CQGaming Name=The Legend Of Snake cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2240 ID=77782 Provider=CQGaming Name=The Magic Brush cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2263 ID=23107 Provider=NetEnt Name=Thief cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2276 ID=23064 Provider=NetEnt Name=Thrill Spin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2278 ID=23129 Provider=NetEnt Name=Thunder Fist cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2281 ID=23651 Provider=Microgaming Name=Thunderstruck cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2282 ID=23632 Provider=Microgaming Name=Thunderstruck II cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2285 ID=77490 Provider=CQGaming Name=TIGER HERO cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2290 ID=23626 Provider=Microgaming Name=Titans Of The Sun: Heia cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2291 ID=23625 Provider=Microgaming Name=Titans Of The Sun: Hyperion cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2296 ID=23661 Provider=Microgaming Name=Tomb Raider cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2298 ID=23140 Provider=NetEnt Name=Tornado cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2314 ID=78539 Provider=CQGaming Name=Treasure Koi cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2316 ID=77761 Provider=CQGaming Name=Treasure of Seti cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2334 ID=23068 Provider=NetEnt Name=Trolls cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2344 ID=23135 Provider=NetEnt Name=Twin Spin cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2345 ID=23679 Provider=Microgaming Name=Twisted Circus cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2346 ID=77792 Provider=CQGaming Name=Typhoon Cash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2370 ID=23101 Provider=NetEnt Name=Victorious cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2375 ID=23063 Provider=NetEnt Name=Viking`s Treasure cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2384 ID=23071 Provider=NetEnt Name=Voodoo Vibes cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2391 ID=77680 Provider=CQGaming Name=Water Margin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2397 ID=77769 Provider=CQGaming Name=Wealthy Chicken cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2406 ID=23157 Provider=NetEnt Name=When Pigs Fly cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2420 ID=77481 Provider=CQGaming Name=Wild Chameleon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2446 ID=23149 Provider=NetEnt Name=Wild Rockets cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2452 ID=23095 Provider=NetEnt Name=Wild Turkey cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2457 ID=23127 Provider=NetEnt Name=Wild Water cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2466 ID=23067 Provider=NetEnt Name=Wild Witches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2485 ID=23134 Provider=NetEnt Name=Wish Master cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2508 ID=23121 Provider=NetEnt Name=Wonky Wabbits cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2523 ID=77772 Provider=CQGaming Name=Xiao Fu Xing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2524 ID=78984 Provider=CQGaming Name=Xiao Ne Zha cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2525 ID=77493 Provider=CQGaming Name=XIYOUJI cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2550 ID=23111 Provider=NetEnt Name=Zombies cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>2551 ID=77768 Provider=CQGaming Name=Zombie's Fortune cod=0 description=null ResponseObject=24</t>
   </si>
 </sst>
 </file>
@@ -491,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -823,56 +1516,6 @@
     <row r="65">
       <c r="A65" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -890,14 +1533,20 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="195.3125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -908,37 +1557,507 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A62"/>
+  <dimension ref="A1:A208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,312 +2078,1042 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
